--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ihh-Ptch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ihh-Ptch1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.9371785</v>
+        <v>6.6728885</v>
       </c>
       <c r="N2">
-        <v>13.874357</v>
+        <v>13.345777</v>
       </c>
       <c r="O2">
-        <v>0.3375035789200212</v>
+        <v>0.420360621011459</v>
       </c>
       <c r="P2">
-        <v>0.2836814434642481</v>
+        <v>0.387781561837984</v>
       </c>
       <c r="Q2">
-        <v>0.1078569389251667</v>
+        <v>0.1037478461018333</v>
       </c>
       <c r="R2">
-        <v>0.6471416335510001</v>
+        <v>0.622487076611</v>
       </c>
       <c r="S2">
-        <v>0.3375035789200212</v>
+        <v>0.420360621011459</v>
       </c>
       <c r="T2">
-        <v>0.2836814434642481</v>
+        <v>0.387781561837984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>3.575874</v>
       </c>
       <c r="O3">
-        <v>0.05799044826687834</v>
+        <v>0.07508775324202954</v>
       </c>
       <c r="P3">
-        <v>0.0731139538910722</v>
+        <v>0.1039023808546958</v>
       </c>
       <c r="Q3">
         <v>0.01853216566466667</v>
@@ -641,10 +641,10 @@
         <v>0.166789490982</v>
       </c>
       <c r="S3">
-        <v>0.05799044826687834</v>
+        <v>0.07508775324202954</v>
       </c>
       <c r="T3">
-        <v>0.0731139538910722</v>
+        <v>0.1039023808546958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.52236</v>
+        <v>0.7168596666666667</v>
       </c>
       <c r="N4">
-        <v>1.56708</v>
+        <v>2.150579</v>
       </c>
       <c r="O4">
-        <v>0.02541355530705492</v>
+        <v>0.04515879062838642</v>
       </c>
       <c r="P4">
-        <v>0.03204123379728185</v>
+        <v>0.06248829749485322</v>
       </c>
       <c r="Q4">
-        <v>0.008121479160000002</v>
+        <v>0.01114549514411111</v>
       </c>
       <c r="R4">
-        <v>0.07309331244</v>
+        <v>0.100309456297</v>
       </c>
       <c r="S4">
-        <v>0.02541355530705492</v>
+        <v>0.04515879062838642</v>
       </c>
       <c r="T4">
-        <v>0.03204123379728185</v>
+        <v>0.06248829749485322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.817747499999999</v>
+        <v>6.534003</v>
       </c>
       <c r="N5">
-        <v>11.635495</v>
+        <v>13.068006</v>
       </c>
       <c r="O5">
-        <v>0.2830416721298156</v>
+        <v>0.4116114871049826</v>
       </c>
       <c r="P5">
-        <v>0.2379046479070015</v>
+        <v>0.3797105089338856</v>
       </c>
       <c r="Q5">
-        <v>0.09045239888083333</v>
+        <v>0.101588500643</v>
       </c>
       <c r="R5">
-        <v>0.542714393285</v>
+        <v>0.609531003858</v>
       </c>
       <c r="S5">
-        <v>0.2830416721298156</v>
+        <v>0.4116114871049826</v>
       </c>
       <c r="T5">
-        <v>0.2379046479070015</v>
+        <v>0.3797105089338856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.261590333333333</v>
+        <v>0.09023766666666666</v>
       </c>
       <c r="N6">
-        <v>15.784771</v>
+        <v>0.270713</v>
       </c>
       <c r="O6">
-        <v>0.2559838367011873</v>
+        <v>0.005684548992332936</v>
       </c>
       <c r="P6">
-        <v>0.3227426411207815</v>
+        <v>0.00786597213109781</v>
       </c>
       <c r="Q6">
-        <v>0.08180545263922223</v>
+        <v>0.001402985162111111</v>
       </c>
       <c r="R6">
-        <v>0.736249073753</v>
+        <v>0.012626866459</v>
       </c>
       <c r="S6">
-        <v>0.2559838367011873</v>
+        <v>0.005684548992332936</v>
       </c>
       <c r="T6">
-        <v>0.3227426411207815</v>
+        <v>0.00786597213109781</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8235506666666668</v>
+        <v>0.668253</v>
       </c>
       <c r="N7">
-        <v>2.470652</v>
+        <v>2.004759</v>
       </c>
       <c r="O7">
-        <v>0.04006690867504266</v>
+        <v>0.04209679902080943</v>
       </c>
       <c r="P7">
-        <v>0.05051607981961482</v>
+        <v>0.05825127874748356</v>
       </c>
       <c r="Q7">
-        <v>0.01280429124844445</v>
+        <v>0.010389774893</v>
       </c>
       <c r="R7">
-        <v>0.115238621236</v>
+        <v>0.09350797403699999</v>
       </c>
       <c r="S7">
-        <v>0.04006690867504266</v>
+        <v>0.04209679902080943</v>
       </c>
       <c r="T7">
-        <v>0.05051607981961482</v>
+        <v>0.05825127874748356</v>
       </c>
     </row>
   </sheetData>
